--- a/河北/自己建的/2023-01/日滚动撮合/1月1日日滚-2023-01-01.xlsx
+++ b/河北/自己建的/2023-01/日滚动撮合/1月1日日滚-2023-01-01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>时间类型</t>
   </si>
@@ -35,25 +35,31 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>河北</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试1</t>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
     </r>
   </si>
   <si>
@@ -63,17 +69,6 @@
     <t>12：00-15：00</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>河北1测试1</t>
-    </r>
-  </si>
-  <si>
     <t>卖方</t>
   </si>
   <si>
@@ -98,40 +93,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>河北</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF272638"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1#2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
     </r>
   </si>
   <si>
@@ -391,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -399,7 +379,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,15 +394,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF272638"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF272638"/>
-      <name val="Segoe UI"/>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -433,32 +407,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -477,6 +429,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -486,41 +477,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,10 +530,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -598,49 +590,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,121 +728,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,21 +791,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFEBEEF5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +824,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,148 +897,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,64 +1055,64 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1141,7 +1133,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1394,7 +1386,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1422,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:5">
+    <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1439,15 +1431,15 @@
         <v>892.05</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>24.593</v>
@@ -1456,15 +1448,15 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>18.319</v>
@@ -1473,15 +1465,15 @@
         <v>634.25</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5">
         <v>37.275</v>
@@ -1490,15 +1482,15 @@
         <v>798.63</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>23.3</v>
@@ -1507,15 +1499,15 @@
         <v>788.12</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+    <row r="7" ht="14.55" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>70.912</v>
@@ -1524,12 +1516,12 @@
         <v>459.6</v>
       </c>
     </row>
-    <row r="8" ht="17.55" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" ht="14.55" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1541,12 +1533,12 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
+    <row r="9" ht="14.55" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1558,12 +1550,12 @@
         <v>577.98</v>
       </c>
     </row>
-    <row r="10" ht="17.55" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
+    <row r="10" ht="14.55" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1575,12 +1567,12 @@
         <v>591.23</v>
       </c>
     </row>
-    <row r="11" ht="17.55" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+    <row r="11" ht="14.55" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1592,12 +1584,12 @@
         <v>564.28</v>
       </c>
     </row>
-    <row r="12" ht="17.55" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
+    <row r="12" ht="14.55" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1609,12 +1601,12 @@
         <v>815.05</v>
       </c>
     </row>
-    <row r="13" ht="17.55" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
+    <row r="13" ht="14.55" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1626,12 +1618,12 @@
         <v>629.93</v>
       </c>
     </row>
-    <row r="14" ht="17.55" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+    <row r="14" ht="14.55" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1643,12 +1635,12 @@
         <v>592.77</v>
       </c>
     </row>
-    <row r="15" ht="17.55" spans="1:5">
+    <row r="15" ht="14.55" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1660,12 +1652,12 @@
         <v>538.49</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
+    <row r="16" ht="14.55" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1677,12 +1669,12 @@
         <v>813.52</v>
       </c>
     </row>
-    <row r="17" ht="17.55" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
+    <row r="17" ht="14.55" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1694,12 +1686,12 @@
         <v>528.58</v>
       </c>
     </row>
-    <row r="18" ht="17.55" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+    <row r="18" ht="14.55" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1711,12 +1703,12 @@
         <v>787.79</v>
       </c>
     </row>
-    <row r="19" ht="17.55" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
+    <row r="19" ht="14.55" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1728,12 +1720,12 @@
         <v>563.99</v>
       </c>
     </row>
-    <row r="20" ht="17.55" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
+    <row r="20" ht="14.55" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1745,12 +1737,12 @@
         <v>467.78</v>
       </c>
     </row>
-    <row r="21" ht="17.55" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+    <row r="21" ht="14.55" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1762,12 +1754,12 @@
         <v>496.64</v>
       </c>
     </row>
-    <row r="22" ht="17.55" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
+    <row r="22" ht="14.55" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1779,12 +1771,12 @@
         <v>477.01</v>
       </c>
     </row>
-    <row r="23" ht="17.55" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
+    <row r="23" ht="14.55" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1796,12 +1788,12 @@
         <v>671.82</v>
       </c>
     </row>
-    <row r="24" ht="17.55" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
+    <row r="24" ht="14.55" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1813,12 +1805,12 @@
         <v>472.86</v>
       </c>
     </row>
-    <row r="25" ht="17.55" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
+    <row r="25" ht="14.55" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1830,12 +1822,12 @@
         <v>876.91</v>
       </c>
     </row>
-    <row r="26" ht="17.55" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
+    <row r="26" ht="14.55" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1847,12 +1839,12 @@
         <v>722.08</v>
       </c>
     </row>
-    <row r="27" ht="17.55" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
+    <row r="27" ht="14.55" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1864,12 +1856,12 @@
         <v>559.43</v>
       </c>
     </row>
-    <row r="28" ht="17.55" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
+    <row r="28" ht="14.55" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1881,12 +1873,12 @@
         <v>747.8</v>
       </c>
     </row>
-    <row r="29" ht="17.55" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
+    <row r="29" ht="14.55" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1898,12 +1890,12 @@
         <v>426.68</v>
       </c>
     </row>
-    <row r="30" ht="17.55" spans="1:5">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
+    <row r="30" ht="14.55" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
